--- a/out/data/pastwinners.xlsx
+++ b/out/data/pastwinners.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -28,44 +28,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Starting Date</t>
   </si>
   <si>
-    <t>b@bbbbbb.com</t>
-  </si>
-  <si>
-    <t>Winner</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <color indexed="12"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>a@a.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test2</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <color indexed="12"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>b@b.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Test4</t>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -1243,291 +1209,129 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5">
-        <v>45796.65302261574</v>
+        <v>45801.04166666667</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>305</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44502.04166666667</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>305</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>305</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>305</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>305</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>305</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>305</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1">
-        <v>305</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="1">
-        <v>305</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="1">
-        <v>100</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="1">
-        <v>100</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1">
-        <v>305</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>305</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>305</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>44474</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="5">
-        <v>44465</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C11" r:id="rId9"/>
-    <hyperlink ref="C12" r:id="rId10"/>
-    <hyperlink ref="C13" r:id="rId11"/>
-    <hyperlink ref="C14" r:id="rId12"/>
-    <hyperlink ref="C15" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C19" r:id="rId17"/>
-  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="72" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
   <headerFooter>
